--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-885227.5618725831</v>
+        <v>-888053.3998347197</v>
       </c>
     </row>
     <row r="7">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>155.562555711002</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>211.6869606715179</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015061</v>
+        <v>54.82178184176826</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032233</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92.74865356169326</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>41.66702030289545</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,16 +786,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>69.71910168322943</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>113.1887820330842</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>132.2357085215406</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.713880001506</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>219.4450108596165</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>263.713880001506</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032233</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>111.2254363169654</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>22.78059723516231</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>101.9335941073368</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527771</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888212</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>183.1176590491623</v>
+        <v>147.9582783324682</v>
       </c>
       <c r="U7" t="n">
-        <v>263.713880001506</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.713880001506</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>240.6255318512768</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>5.09286364916129</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>134.6686753429975</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>207.443682427336</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>67.04762282454111</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>410.0532651913544</v>
       </c>
       <c r="H11" t="n">
-        <v>285.7136436798485</v>
+        <v>285.7136436798486</v>
       </c>
       <c r="I11" t="n">
-        <v>8.095607807851934</v>
+        <v>8.095607807852389</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>89.3977190080935</v>
+        <v>89.39771900809377</v>
       </c>
       <c r="T11" t="n">
-        <v>200.1162844667815</v>
+        <v>200.1162844667816</v>
       </c>
       <c r="U11" t="n">
         <v>250.925695121934</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>12.86951122239924</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1464,10 @@
         <v>134.5348018533689</v>
       </c>
       <c r="H12" t="n">
-        <v>85.10916742828846</v>
+        <v>85.10916742828852</v>
       </c>
       <c r="I12" t="n">
-        <v>2.818804639222165</v>
+        <v>2.818804639222378</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>119.512516116208</v>
+        <v>119.5125161162082</v>
       </c>
       <c r="T12" t="n">
         <v>188.843634967872</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.6362467935498</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>4.104208760421026</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>71.41605259498898</v>
+        <v>71.41605259498922</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>286.1905893984049</v>
       </c>
       <c r="V13" t="n">
-        <v>126.828663213023</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1658,13 +1658,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>114.5120075176649</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.1343012721633</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>110.0177171766847</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>277.0527067260858</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>81.278598673301</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,10 +2251,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>108.5813113004308</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>36.43062059490504</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>162.8435308896557</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="27">
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>41.02686156550273</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V31" t="n">
-        <v>142.1343012721642</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444129</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569552</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="33">
@@ -3199,13 +3199,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>91.89996056624804</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>75.00788511618087</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620684</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3433,7 +3433,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002292</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3673,13 +3673,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3797,10 +3797,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4034,13 +4034,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002307</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652575</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808189</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>840.4214638411523</v>
+        <v>419.733006062639</v>
       </c>
       <c r="C2" t="n">
-        <v>683.2875691835745</v>
+        <v>419.733006062639</v>
       </c>
       <c r="D2" t="n">
-        <v>416.9099126163966</v>
+        <v>419.733006062639</v>
       </c>
       <c r="E2" t="n">
-        <v>416.9099126163966</v>
+        <v>419.733006062639</v>
       </c>
       <c r="F2" t="n">
-        <v>416.9099126163966</v>
+        <v>205.9077932631259</v>
       </c>
       <c r="G2" t="n">
-        <v>403.9460998429521</v>
+        <v>192.9439804896815</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757742</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.2826908791767</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030607</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
         <v>888.5149683358413</v>
@@ -4349,31 +4349,31 @@
         <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006024</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411523</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>840.4214638411523</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="V2" t="n">
-        <v>840.4214638411523</v>
+        <v>419.733006062639</v>
       </c>
       <c r="W2" t="n">
-        <v>840.4214638411523</v>
+        <v>419.733006062639</v>
       </c>
       <c r="X2" t="n">
-        <v>840.4214638411523</v>
+        <v>419.733006062639</v>
       </c>
       <c r="Y2" t="n">
-        <v>840.4214638411523</v>
+        <v>419.733006062639</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.18500969597449</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="C3" t="n">
-        <v>63.18500969597449</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="D3" t="n">
-        <v>63.18500969597449</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="E3" t="n">
-        <v>63.18500969597449</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="F3" t="n">
-        <v>63.18500969597449</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="G3" t="n">
-        <v>63.18500969597449</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="H3" t="n">
-        <v>63.18500969597449</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
@@ -4410,49 +4410,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699346</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267548</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560895</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006024</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006024</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="U3" t="n">
-        <v>826.7196740428378</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="V3" t="n">
-        <v>826.7196740428378</v>
+        <v>835.7958865762992</v>
       </c>
       <c r="W3" t="n">
-        <v>572.4823173146362</v>
+        <v>581.5585298480975</v>
       </c>
       <c r="X3" t="n">
-        <v>364.6308171091034</v>
+        <v>373.7070296425646</v>
       </c>
       <c r="Y3" t="n">
-        <v>156.8705183441495</v>
+        <v>165.9467308776107</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.4292134638419</v>
+        <v>493.7044835239748</v>
       </c>
       <c r="C4" t="n">
-        <v>135.4292134638419</v>
+        <v>493.7044835239748</v>
       </c>
       <c r="D4" t="n">
-        <v>135.4292134638419</v>
+        <v>343.5878441116391</v>
       </c>
       <c r="E4" t="n">
-        <v>135.4292134638419</v>
+        <v>343.5878441116391</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>343.5878441116391</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
         <v>21.09711040012049</v>
@@ -4492,46 +4492,46 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227042</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075538</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165356</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T4" t="n">
-        <v>622.5994491745499</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="U4" t="n">
-        <v>356.221792607372</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="V4" t="n">
-        <v>356.221792607372</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="W4" t="n">
-        <v>356.221792607372</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="X4" t="n">
-        <v>356.221792607372</v>
+        <v>714.4970626675049</v>
       </c>
       <c r="Y4" t="n">
-        <v>135.4292134638419</v>
+        <v>493.7044835239748</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>573.761737057124</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C5" t="n">
-        <v>307.3840804899462</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D5" t="n">
-        <v>307.3840804899462</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="E5" t="n">
-        <v>307.3840804899462</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="F5" t="n">
-        <v>300.4385797407427</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>287.4747669672983</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012048</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012048</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917581</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052544</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
         <v>294.5174947515908</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030607</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991321</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
-        <v>1011.026904601762</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946884</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>686.1106626298164</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>573.761737057124</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>573.761737057124</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="W5" t="n">
-        <v>573.761737057124</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="X5" t="n">
-        <v>573.761737057124</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="Y5" t="n">
-        <v>573.761737057124</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>406.3066436995908</v>
+        <v>190.6423726511773</v>
       </c>
       <c r="C6" t="n">
-        <v>406.3066436995908</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="D6" t="n">
-        <v>406.3066436995908</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="E6" t="n">
-        <v>303.3434173285435</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>303.3434173285435</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776108</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749989</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012048</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012048</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957456</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298711</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263948</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110289997</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557294</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891328</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212814</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212814</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212814</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212814</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212814</v>
+        <v>652.7312295849117</v>
       </c>
       <c r="W6" t="n">
-        <v>782.2822794846127</v>
+        <v>398.4938728567101</v>
       </c>
       <c r="X6" t="n">
-        <v>782.2822794846127</v>
+        <v>190.6423726511773</v>
       </c>
       <c r="Y6" t="n">
-        <v>574.5219807196588</v>
+        <v>190.6423726511773</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337.1328744987773</v>
+        <v>190.2429270008669</v>
       </c>
       <c r="C7" t="n">
-        <v>337.1328744987773</v>
+        <v>190.2429270008669</v>
       </c>
       <c r="D7" t="n">
-        <v>337.1328744987773</v>
+        <v>190.2429270008669</v>
       </c>
       <c r="E7" t="n">
-        <v>337.1328744987773</v>
+        <v>190.2429270008669</v>
       </c>
       <c r="F7" t="n">
         <v>190.2429270008669</v>
@@ -4717,58 +4717,58 @@
         <v>190.2429270008669</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434485</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434485</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012048</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227043</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075538</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>869.8881876331329</v>
+        <v>905.4027136095923</v>
       </c>
       <c r="U7" t="n">
-        <v>603.5105310659551</v>
+        <v>905.4027136095923</v>
       </c>
       <c r="V7" t="n">
-        <v>603.5105310659551</v>
+        <v>905.4027136095923</v>
       </c>
       <c r="W7" t="n">
-        <v>337.1328744987773</v>
+        <v>639.0250570424143</v>
       </c>
       <c r="X7" t="n">
-        <v>337.1328744987773</v>
+        <v>411.035506144397</v>
       </c>
       <c r="Y7" t="n">
-        <v>337.1328744987773</v>
+        <v>190.2429270008669</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1588.383781964454</v>
+        <v>1420.453969953914</v>
       </c>
       <c r="C8" t="n">
-        <v>1588.383781964454</v>
+        <v>1420.453969953914</v>
       </c>
       <c r="D8" t="n">
-        <v>1230.118083357703</v>
+        <v>1062.188271347163</v>
       </c>
       <c r="E8" t="n">
-        <v>844.329830759459</v>
+        <v>676.4000187489189</v>
       </c>
       <c r="F8" t="n">
         <v>433.3439259698515</v>
@@ -4802,13 +4802,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>2348.449380289655</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W8" t="n">
-        <v>2348.449380289655</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X8" t="n">
-        <v>1974.983622028575</v>
+        <v>1810.593301929725</v>
       </c>
       <c r="Y8" t="n">
-        <v>1974.983622028575</v>
+        <v>1420.453969953914</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
         <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>821.9680821844939</v>
+        <v>777.6069060507746</v>
       </c>
       <c r="M9" t="n">
-        <v>1456.147065963532</v>
+        <v>1140.868925009995</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560478</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P9" t="n">
         <v>2422.685363568936</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1745.720453140621</v>
+        <v>919.6966947956497</v>
       </c>
       <c r="C10" t="n">
-        <v>1576.784270212714</v>
+        <v>750.7605118677428</v>
       </c>
       <c r="D10" t="n">
-        <v>1440.755305219787</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="E10" t="n">
-        <v>1440.755305219787</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F10" t="n">
-        <v>1293.865357721877</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>1125.878893030155</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>977.1399948936614</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>2459.755921915737</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>2263.127174075599</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>2263.127174075599</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>2263.127174075599</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V10" t="n">
-        <v>2263.127174075599</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="W10" t="n">
-        <v>1973.710004038638</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="X10" t="n">
-        <v>1745.720453140621</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="Y10" t="n">
-        <v>1745.720453140621</v>
+        <v>1101.345159625889</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2004.601973585493</v>
+        <v>2322.665354643797</v>
       </c>
       <c r="C11" t="n">
-        <v>1635.639456645081</v>
+        <v>1953.702837703385</v>
       </c>
       <c r="D11" t="n">
-        <v>1277.373758038331</v>
+        <v>1595.437139096635</v>
       </c>
       <c r="E11" t="n">
-        <v>1209.64888649839</v>
+        <v>1209.648886498391</v>
       </c>
       <c r="F11" t="n">
-        <v>798.6629817087826</v>
+        <v>798.6629817087829</v>
       </c>
       <c r="G11" t="n">
-        <v>384.4677643437782</v>
+        <v>384.4677643437785</v>
       </c>
       <c r="H11" t="n">
-        <v>95.86812426312314</v>
+        <v>95.86812426312331</v>
       </c>
       <c r="I11" t="n">
-        <v>87.69074263903028</v>
+        <v>87.69074263902998</v>
       </c>
       <c r="J11" t="n">
-        <v>349.5422747816847</v>
+        <v>349.5422747816838</v>
       </c>
       <c r="K11" t="n">
-        <v>792.7283617022072</v>
+        <v>792.7283617022047</v>
       </c>
       <c r="L11" t="n">
-        <v>1379.441653579586</v>
+        <v>1379.441653579582</v>
       </c>
       <c r="M11" t="n">
-        <v>2063.942675785907</v>
+        <v>2063.942675785901</v>
       </c>
       <c r="N11" t="n">
-        <v>2764.133448534145</v>
+        <v>2764.133448534136</v>
       </c>
       <c r="O11" t="n">
-        <v>3411.96847892014</v>
+        <v>3411.96847892013</v>
       </c>
       <c r="P11" t="n">
-        <v>3930.379688302486</v>
+        <v>3930.379688302474</v>
       </c>
       <c r="Q11" t="n">
-        <v>4271.512170187404</v>
+        <v>4271.51217018739</v>
       </c>
       <c r="R11" t="n">
-        <v>4384.537131951513</v>
+        <v>4384.537131951499</v>
       </c>
       <c r="S11" t="n">
-        <v>4294.236405680712</v>
+        <v>4294.236405680697</v>
       </c>
       <c r="T11" t="n">
-        <v>4092.098744603155</v>
+        <v>4092.09874460314</v>
       </c>
       <c r="U11" t="n">
-        <v>3838.638446500191</v>
+        <v>3838.638446500177</v>
       </c>
       <c r="V11" t="n">
-        <v>3507.57555915662</v>
+        <v>3825.638940214925</v>
       </c>
       <c r="W11" t="n">
-        <v>3154.806903886506</v>
+        <v>3472.87028494481</v>
       </c>
       <c r="X11" t="n">
-        <v>2781.341145625426</v>
+        <v>3099.404526683731</v>
       </c>
       <c r="Y11" t="n">
-        <v>2391.201813649614</v>
+        <v>2709.265194707919</v>
       </c>
     </row>
     <row r="12">
@@ -5094,52 +5094,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5600672073323</v>
+        <v>941.5600672073321</v>
       </c>
       <c r="C12" t="n">
-        <v>767.1070379262053</v>
+        <v>767.1070379262051</v>
       </c>
       <c r="D12" t="n">
-        <v>618.172628264954</v>
+        <v>618.1726282649538</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9351732594985</v>
+        <v>458.9351732594984</v>
       </c>
       <c r="F12" t="n">
         <v>312.4006152863834</v>
       </c>
       <c r="G12" t="n">
-        <v>176.5068760405562</v>
+        <v>176.5068760405561</v>
       </c>
       <c r="H12" t="n">
-        <v>90.538020052386</v>
+        <v>90.53802005238592</v>
       </c>
       <c r="I12" t="n">
-        <v>87.69074263903028</v>
+        <v>87.69074263902998</v>
       </c>
       <c r="J12" t="n">
-        <v>224.8298743636227</v>
+        <v>224.8298743636217</v>
       </c>
       <c r="K12" t="n">
-        <v>224.8298743636227</v>
+        <v>359.4185627679274</v>
       </c>
       <c r="L12" t="n">
-        <v>691.4110247831974</v>
+        <v>825.9997131875008</v>
       </c>
       <c r="M12" t="n">
-        <v>797.5795616431451</v>
+        <v>825.9997131875008</v>
       </c>
       <c r="N12" t="n">
-        <v>1390.746306446961</v>
+        <v>1419.166457991315</v>
       </c>
       <c r="O12" t="n">
-        <v>1911.158198213859</v>
+        <v>1939.578349758212</v>
       </c>
       <c r="P12" t="n">
-        <v>2309.501555436344</v>
+        <v>2337.921706980695</v>
       </c>
       <c r="Q12" t="n">
-        <v>2525.864344151957</v>
+        <v>2554.284495696307</v>
       </c>
       <c r="R12" t="n">
         <v>2554.284495696307</v>
@@ -5154,7 +5154,7 @@
         <v>2014.776668157831</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.624559926089</v>
+        <v>1779.624559926088</v>
       </c>
       <c r="W12" t="n">
         <v>1525.387203197887</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>701.5466060595763</v>
+        <v>574.9718786749188</v>
       </c>
       <c r="C13" t="n">
-        <v>532.6104231316694</v>
+        <v>406.0356957470119</v>
       </c>
       <c r="D13" t="n">
-        <v>382.4937837193337</v>
+        <v>406.0356957470119</v>
       </c>
       <c r="E13" t="n">
-        <v>234.5806901369406</v>
+        <v>406.0356957470119</v>
       </c>
       <c r="F13" t="n">
-        <v>87.69074263903028</v>
+        <v>259.1457482491015</v>
       </c>
       <c r="G13" t="n">
-        <v>87.69074263903028</v>
+        <v>91.83640805359667</v>
       </c>
       <c r="H13" t="n">
-        <v>87.69074263903028</v>
+        <v>87.69074263902998</v>
       </c>
       <c r="I13" t="n">
-        <v>87.69074263903028</v>
+        <v>87.69074263902998</v>
       </c>
       <c r="J13" t="n">
-        <v>160.0799507391991</v>
+        <v>160.0799507391984</v>
       </c>
       <c r="K13" t="n">
-        <v>408.8744934474068</v>
+        <v>408.8744934474056</v>
       </c>
       <c r="L13" t="n">
-        <v>782.7722857538142</v>
+        <v>782.7722857538124</v>
       </c>
       <c r="M13" t="n">
-        <v>1187.384206496567</v>
+        <v>1187.384206496565</v>
       </c>
       <c r="N13" t="n">
-        <v>1587.809976538021</v>
+        <v>1587.809976538018</v>
       </c>
       <c r="O13" t="n">
-        <v>1941.651690445765</v>
+        <v>1941.651690445761</v>
       </c>
       <c r="P13" t="n">
-        <v>2220.903722509952</v>
+        <v>2220.903722509947</v>
       </c>
       <c r="Q13" t="n">
-        <v>2330.808274589165</v>
+        <v>2330.80827458916</v>
       </c>
       <c r="R13" t="n">
-        <v>2258.67084772554</v>
+        <v>2258.670847725534</v>
       </c>
       <c r="S13" t="n">
-        <v>2258.67084772554</v>
+        <v>2258.670847725534</v>
       </c>
       <c r="T13" t="n">
-        <v>2038.585535222292</v>
+        <v>2038.585535222286</v>
       </c>
       <c r="U13" t="n">
-        <v>1749.50413178956</v>
+        <v>1749.504131789554</v>
       </c>
       <c r="V13" t="n">
-        <v>1621.394370968324</v>
+        <v>1494.819643583667</v>
       </c>
       <c r="W13" t="n">
-        <v>1331.977200931364</v>
+        <v>1205.402473546706</v>
       </c>
       <c r="X13" t="n">
-        <v>1103.987650033346</v>
+        <v>977.4129226486887</v>
       </c>
       <c r="Y13" t="n">
-        <v>883.1950708898161</v>
+        <v>756.6203435051585</v>
       </c>
     </row>
     <row r="14">
@@ -5270,25 +5270,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,13 +5297,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5425,13 +5425,13 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5461,25 +5461,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2303.393082295247</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2083.791617318188</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1794.716390662386</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,7 +5549,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1965.532750177311</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2389.15589967238</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1880.464695940366</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1625.780207734479</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y19" t="n">
-        <v>887.5809076559709</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111716</v>
@@ -5759,19 +5759,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>417.9651836029407</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L21" t="n">
-        <v>913.2907898186995</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898186995</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373306</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5966,40 +5966,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327652</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048583</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925226</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>2032.574130447511</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1743.498903791709</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1488.814415585822</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1199.397245548862</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806535</v>
+        <v>971.4076946508441</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630049</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="26">
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803938</v>
@@ -6318,10 +6318,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6443,34 +6443,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192667</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111723</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6479,31 +6479,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6643,28 +6643,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6680,16 +6680,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168603</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362677</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6704,7 +6704,7 @@
         <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,28 +6777,28 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>913.2907898186995</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>800.5007694647281</v>
+        <v>1092.345997432835</v>
       </c>
       <c r="C34" t="n">
-        <v>631.5645865368213</v>
+        <v>923.4098145049279</v>
       </c>
       <c r="D34" t="n">
-        <v>481.4479471244855</v>
+        <v>773.2931750925922</v>
       </c>
       <c r="E34" t="n">
-        <v>333.5348535420924</v>
+        <v>625.380081510199</v>
       </c>
       <c r="F34" t="n">
-        <v>186.644906044182</v>
+        <v>478.4901340122886</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>311.2940347271686</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>169.5822035693667</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373476</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.931364336515</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="X34" t="n">
-        <v>1202.941813438498</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1492342949679</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803938</v>
@@ -7020,16 +7020,16 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345477</v>
@@ -7096,10 +7096,10 @@
         <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,19 +7117,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,28 +7160,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7190,7 +7190,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
@@ -7260,19 +7260,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7321,16 +7321,16 @@
         <v>411.2214559580117</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
         <v>483.825546038073</v>
@@ -7345,13 +7345,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7406,28 +7406,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
@@ -7488,22 +7488,22 @@
         <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
         <v>782.551295565682</v>
@@ -7558,13 +7558,13 @@
         <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.0944824954151</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7643,19 +7643,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319336</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656829</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150036</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942668</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580128</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J46" t="n">
         <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380732</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -7837,19 +7837,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418308</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127275</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127223</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418308</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127265</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,10 +8535,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>231.2582814363242</v>
+        <v>186.4490126143855</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-4.22895166228016e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -22550,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917687</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>195.1890850701935</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776191</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22601,10 +22601,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22644,7 +22644,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.254783698610164</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22720,13 +22720,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888212</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>314.8827472477207</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>314.8827472477357</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.6362467935498</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>141.2914593394306</v>
+        <v>137.1872505790096</v>
       </c>
       <c r="I13" t="n">
-        <v>84.63724470254067</v>
+        <v>84.63724470254083</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>182.9800314285129</v>
+        <v>182.980031428513</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>125.308980110805</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>65.31997266427237</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462258</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23701,7 +23701,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>38.89198472948246</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194318</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>9.131767663158371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>85.96822242532683</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24175,7 +24175,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>110.003342051664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>54.56191943763261</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.9994244361419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V31" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>73.6241777260208</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>6.257951202384646</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,22 +25120,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -26035,7 +26035,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>-1.437294740448303e-12</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1071963.940272973</v>
+        <v>1071963.940272975</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1157220.668472555</v>
+        <v>1157220.668472552</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1198470.50608792</v>
+        <v>1198470.506087919</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1198470.50608792</v>
+        <v>1198470.506087919</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1198470.50608792</v>
+        <v>1198470.506087919</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1198470.50608792</v>
+        <v>1198470.506087919</v>
       </c>
     </row>
     <row r="12">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>197689.1744726804</v>
+        <v>197689.1744726807</v>
       </c>
       <c r="C2" t="n">
         <v>225786.4867126778</v>
       </c>
       <c r="D2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="E2" t="n">
-        <v>214274.6672237513</v>
+        <v>214274.6672237509</v>
       </c>
       <c r="F2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147518</v>
       </c>
       <c r="G2" t="n">
         <v>221965.3149147517</v>
@@ -26332,28 +26332,28 @@
         <v>221965.3149147517</v>
       </c>
       <c r="I2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="J2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="K2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="L2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="M2" t="n">
+        <v>225786.4867126781</v>
+      </c>
+      <c r="N2" t="n">
+        <v>225786.4867126781</v>
+      </c>
+      <c r="O2" t="n">
         <v>225786.486712678</v>
       </c>
-      <c r="N2" t="n">
-        <v>225786.486712678</v>
-      </c>
-      <c r="O2" t="n">
-        <v>225786.4867126781</v>
-      </c>
       <c r="P2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.4867126782</v>
       </c>
     </row>
     <row r="3">
@@ -26363,43 +26363,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911927</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059438</v>
+        <v>391128.3638059434</v>
       </c>
       <c r="E3" t="n">
-        <v>434675.1584941926</v>
+        <v>434675.1584941893</v>
       </c>
       <c r="F3" t="n">
-        <v>71081.82395224171</v>
+        <v>71081.82395224503</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911413</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756978</v>
+        <v>95382.6461375698</v>
       </c>
       <c r="M3" t="n">
-        <v>132952.4633526849</v>
+        <v>132952.463352684</v>
       </c>
       <c r="N3" t="n">
-        <v>18755.0413500105</v>
+        <v>18755.04135001127</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189332.1279931184</v>
+        <v>189332.1279931192</v>
       </c>
       <c r="C4" t="n">
-        <v>247648.5670423891</v>
+        <v>247648.567042389</v>
       </c>
       <c r="D4" t="n">
         <v>135522.1369769831</v>
       </c>
       <c r="E4" t="n">
-        <v>8687.525133774705</v>
+        <v>8687.525133774703</v>
       </c>
       <c r="F4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744271</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744246</v>
+        <v>8727.256391744308</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744264</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744269</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744322</v>
+        <v>8727.256391744337</v>
       </c>
       <c r="M4" t="n">
         <v>16718.11565483769</v>
       </c>
       <c r="N4" t="n">
-        <v>16718.11565483773</v>
+        <v>16718.11565483772</v>
       </c>
       <c r="O4" t="n">
-        <v>16718.11565483773</v>
+        <v>16718.11565483772</v>
       </c>
       <c r="P4" t="n">
-        <v>16718.11565483775</v>
+        <v>16718.11565483772</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>95111.54044944458</v>
+        <v>95111.54044944429</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-734778.7373158969</v>
+        <v>-735034.1674271706</v>
       </c>
       <c r="C6" t="n">
-        <v>-84909.88353397747</v>
+        <v>-84909.88353397739</v>
       </c>
       <c r="D6" t="n">
-        <v>-393801.7865100936</v>
+        <v>-393801.7865100934</v>
       </c>
       <c r="E6" t="n">
-        <v>-324199.5568536606</v>
+        <v>-324304.2097581021</v>
       </c>
       <c r="F6" t="n">
-        <v>41033.70474685849</v>
+        <v>40998.96682141967</v>
       </c>
       <c r="G6" t="n">
-        <v>112115.5286991001</v>
+        <v>112080.7907736647</v>
       </c>
       <c r="H6" t="n">
-        <v>112115.5286991003</v>
+        <v>112080.7907736644</v>
       </c>
       <c r="I6" t="n">
-        <v>112115.5286991003</v>
+        <v>112080.7907736646</v>
       </c>
       <c r="J6" t="n">
-        <v>43116.37427998618</v>
+        <v>43081.63635455053</v>
       </c>
       <c r="K6" t="n">
-        <v>112115.5286991003</v>
+        <v>112080.7907736646</v>
       </c>
       <c r="L6" t="n">
-        <v>16732.88256153039</v>
+        <v>16698.14463609473</v>
       </c>
       <c r="M6" t="n">
-        <v>-27048.20814875998</v>
+        <v>-27048.20814875906</v>
       </c>
       <c r="N6" t="n">
-        <v>87149.21385391439</v>
+        <v>87149.21385391369</v>
       </c>
       <c r="O6" t="n">
+        <v>105904.2552039249</v>
+      </c>
+      <c r="P6" t="n">
         <v>105904.255203925</v>
-      </c>
-      <c r="P6" t="n">
-        <v>105904.2552039249</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.223655907778799e-14</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1305.806240540439</v>
+        <v>1305.806240540436</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.713880001506</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1096.134282987878</v>
+        <v>1096.134282987875</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>8.405240743516401e-14</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203963</v>
+        <v>24.28464749203961</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480612</v>
+        <v>320.0098783480609</v>
       </c>
       <c r="E3" t="n">
-        <v>371.7413484229002</v>
+        <v>371.7413484228973</v>
       </c>
       <c r="F3" t="n">
-        <v>62.16925980123438</v>
+        <v>62.16925980123733</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27015,13 +27015,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985328</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="E4" t="n">
-        <v>455.5494508878395</v>
+        <v>455.5494508878359</v>
       </c>
       <c r="F4" t="n">
-        <v>76.57400511177002</v>
+        <v>76.57400511177343</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>455.5494508878397</v>
+        <v>455.5494508878363</v>
       </c>
       <c r="N4" t="n">
-        <v>76.57400511177002</v>
+        <v>76.5740051117732</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27261,13 +27261,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985328</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>455.5494508878395</v>
+        <v>455.5494508878359</v>
       </c>
       <c r="N4" t="n">
-        <v>76.57400511177002</v>
+        <v>76.57400511177343</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>209.7103360600055</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>259.3718507874997</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.78453008817408</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27473,7 +27473,7 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527771</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>163.0814854661958</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>32.23226598984702</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,10 +27588,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117141</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>93.47394686749652</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695015</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>162.4853592126453</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776197</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>139.9227315613171</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>149.9279017531534</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>55.71148634806417</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
@@ -27752,16 +27752,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>40.0966868304036</v>
+        <v>75.2560675470977</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117147</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508497</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>166.2505138904347</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>322.6593948209736</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>13.94679767521481</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>11.14097092475882</v>
       </c>
     </row>
     <row r="11">
@@ -28378,13 +28378,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28533,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>8.30056023914949e-13</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="33">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350877</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582785</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350877</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582785</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.249472323780656</v>
+        <v>5.249472323780645</v>
       </c>
       <c r="H11" t="n">
-        <v>53.76115843591867</v>
+        <v>53.76115843591855</v>
       </c>
       <c r="I11" t="n">
-        <v>202.380281762554</v>
+        <v>202.3802817625535</v>
       </c>
       <c r="J11" t="n">
-        <v>445.5424016404789</v>
+        <v>445.5424016404779</v>
       </c>
       <c r="K11" t="n">
-        <v>667.7525651061143</v>
+        <v>667.7525651061128</v>
       </c>
       <c r="L11" t="n">
-        <v>828.4061037350167</v>
+        <v>828.4061037350149</v>
       </c>
       <c r="M11" t="n">
-        <v>921.7614071730509</v>
+        <v>921.7614071730488</v>
       </c>
       <c r="N11" t="n">
-        <v>936.6764704129928</v>
+        <v>936.6764704129907</v>
       </c>
       <c r="O11" t="n">
-        <v>884.4770299933988</v>
+        <v>884.4770299933969</v>
       </c>
       <c r="P11" t="n">
-        <v>754.8806820000638</v>
+        <v>754.8806820000621</v>
       </c>
       <c r="Q11" t="n">
-        <v>566.8839544046688</v>
+        <v>566.8839544046675</v>
       </c>
       <c r="R11" t="n">
-        <v>329.752165858687</v>
+        <v>329.7521658586862</v>
       </c>
       <c r="S11" t="n">
-        <v>119.6223505781518</v>
+        <v>119.6223505781516</v>
       </c>
       <c r="T11" t="n">
-        <v>22.97956509734984</v>
+        <v>22.97956509734978</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4199577859024525</v>
+        <v>0.4199577859024515</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.8087153098417</v>
+        <v>2.808715309841693</v>
       </c>
       <c r="H12" t="n">
-        <v>27.126276808208</v>
+        <v>27.12627680820794</v>
       </c>
       <c r="I12" t="n">
-        <v>96.70357536077783</v>
+        <v>96.70357536077762</v>
       </c>
       <c r="J12" t="n">
-        <v>265.3620021460529</v>
+        <v>265.3620021460523</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>273.7896090797183</v>
       </c>
       <c r="L12" t="n">
-        <v>609.8484711127779</v>
+        <v>609.8484711127766</v>
       </c>
       <c r="M12" t="n">
-        <v>249.3749802451978</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>730.5000401679955</v>
+        <v>730.5000401679938</v>
       </c>
       <c r="O12" t="n">
-        <v>668.2648219867662</v>
+        <v>668.2648219867647</v>
       </c>
       <c r="P12" t="n">
-        <v>536.3414349117892</v>
+        <v>536.341434911788</v>
       </c>
       <c r="Q12" t="n">
-        <v>358.5300455159335</v>
+        <v>358.5300455159327</v>
       </c>
       <c r="R12" t="n">
-        <v>174.3867277461365</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>52.17065498762979</v>
+        <v>52.17065498762967</v>
       </c>
       <c r="T12" t="n">
-        <v>11.32109372694965</v>
+        <v>11.32109372694963</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1847839019632698</v>
+        <v>0.1847839019632694</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.354732564908989</v>
+        <v>2.354732564908983</v>
       </c>
       <c r="H13" t="n">
-        <v>20.93571316800902</v>
+        <v>20.93571316800898</v>
       </c>
       <c r="I13" t="n">
-        <v>70.81323022471761</v>
+        <v>70.81323022471746</v>
       </c>
       <c r="J13" t="n">
-        <v>166.4795923390655</v>
+        <v>166.4795923390651</v>
       </c>
       <c r="K13" t="n">
-        <v>273.5771107230624</v>
+        <v>273.5771107230618</v>
       </c>
       <c r="L13" t="n">
-        <v>350.0845124229237</v>
+        <v>350.084512422923</v>
       </c>
       <c r="M13" t="n">
-        <v>369.1150328793244</v>
+        <v>369.1150328793236</v>
       </c>
       <c r="N13" t="n">
-        <v>360.3383024101185</v>
+        <v>360.3383024101177</v>
       </c>
       <c r="O13" t="n">
-        <v>332.8307447200452</v>
+        <v>332.8307447200444</v>
       </c>
       <c r="P13" t="n">
-        <v>284.7942003959016</v>
+        <v>284.7942003959009</v>
       </c>
       <c r="Q13" t="n">
-        <v>197.1767423216063</v>
+        <v>197.1767423216059</v>
       </c>
       <c r="R13" t="n">
-        <v>105.8773387821805</v>
+        <v>105.8773387821803</v>
       </c>
       <c r="S13" t="n">
-        <v>41.03656660845936</v>
+        <v>41.03656660845927</v>
       </c>
       <c r="T13" t="n">
-        <v>10.06113005006568</v>
+        <v>10.06113005006565</v>
       </c>
       <c r="U13" t="n">
-        <v>0.128439958085945</v>
+        <v>0.1284399580859447</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>669.5976799347666</v>
       </c>
       <c r="N15" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.5330199802459</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,22 +32549,22 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>465.2641870096811</v>
+        <v>305.1876769472509</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
@@ -32573,7 +32573,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32783,31 +32783,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>430.4001870301144</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,16 +33257,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>440.316328560036</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33497,31 +33497,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>627.2230337139549</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33740,19 +33740,19 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>543.5992845760902</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>377.6350660745949</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422586</v>
@@ -34217,16 +34217,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>167.4835451665585</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34442,13 +34442,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089031</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659561</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649633</v>
+        <v>125.9385470877686</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496797</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763038</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659561</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.938547087769</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496797</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>528.9386420741744</v>
+        <v>484.1293732522357</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,13 +35267,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>264.4964971137927</v>
+        <v>264.4964971137916</v>
       </c>
       <c r="K11" t="n">
-        <v>447.6627140611337</v>
+        <v>447.6627140611322</v>
       </c>
       <c r="L11" t="n">
-        <v>592.6396887650294</v>
+        <v>592.6396887650276</v>
       </c>
       <c r="M11" t="n">
-        <v>691.4151739457782</v>
+        <v>691.4151739457761</v>
       </c>
       <c r="N11" t="n">
-        <v>707.2634068164018</v>
+        <v>707.2634068163998</v>
       </c>
       <c r="O11" t="n">
-        <v>654.378818571712</v>
+        <v>654.3788185717101</v>
       </c>
       <c r="P11" t="n">
-        <v>523.6476862447942</v>
+        <v>523.6476862447926</v>
       </c>
       <c r="Q11" t="n">
-        <v>344.5782645302193</v>
+        <v>344.578264530218</v>
       </c>
       <c r="R11" t="n">
-        <v>114.1666280445548</v>
+        <v>114.1666280445541</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>138.5243754793862</v>
+        <v>138.5243754793856</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>135.9481701053593</v>
       </c>
       <c r="L12" t="n">
-        <v>471.2940913329037</v>
+        <v>471.2940913329024</v>
       </c>
       <c r="M12" t="n">
-        <v>107.2409463231795</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>599.1583280846622</v>
+        <v>599.1583280846605</v>
       </c>
       <c r="O12" t="n">
-        <v>525.6685775423217</v>
+        <v>525.6685775423202</v>
       </c>
       <c r="P12" t="n">
-        <v>402.3670274974589</v>
+        <v>402.3670274974578</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.548271429912</v>
+        <v>218.5482714299112</v>
       </c>
       <c r="R12" t="n">
-        <v>28.70722378217252</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>73.12041222239273</v>
+        <v>73.12041222239233</v>
       </c>
       <c r="K13" t="n">
-        <v>251.3076188971796</v>
+        <v>251.307618897179</v>
       </c>
       <c r="L13" t="n">
-        <v>377.6745376832398</v>
+        <v>377.6745376832391</v>
       </c>
       <c r="M13" t="n">
-        <v>408.698909841165</v>
+        <v>408.6989098411642</v>
       </c>
       <c r="N13" t="n">
-        <v>404.4704747893471</v>
+        <v>404.4704747893463</v>
       </c>
       <c r="O13" t="n">
-        <v>357.4158726340848</v>
+        <v>357.4158726340841</v>
       </c>
       <c r="P13" t="n">
-        <v>282.0727596607951</v>
+        <v>282.0727596607944</v>
       </c>
       <c r="Q13" t="n">
-        <v>111.0146990699119</v>
+        <v>111.0146990699115</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>527.4636460127483</v>
       </c>
       <c r="N15" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.5512458942243</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.631773306624</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>327.4227480353221</v>
+        <v>167.3462379728919</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.4543240367771</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>291.8458072502402</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>302.474889585677</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>488.6686539340807</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37388,19 +37388,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>405.044904796216</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37470,19 +37470,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>235.5010321525766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,16 +37865,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>25.34951124454015</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016748</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111713</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986648</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919382</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
